--- a/DateBase/orders/Dang Nguyen 195_2026-2-8.xlsx
+++ b/DateBase/orders/Dang Nguyen 195_2026-2-8.xlsx
@@ -1169,6 +1169,9 @@
       <c r="G2" t="str">
         <v>0307810104029151520111805557060551581321567.5560305503020103081010151021015151010304058153010154101061010101010101010105510101010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
